--- a/prediction_analysis.xlsx
+++ b/prediction_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr updateLinks="always" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzraiMahadan\AI_ML_DL\Project\Capstone_FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzraiMahadan\AI_ML_DL\Face-Analysis-for-Customer-Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DD2F4B-F3E1-4D3C-AC37-DE1C5CA40D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27182A6-3BAC-44FC-8DE8-E9772C316F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FEB420F-1CB7-4B2B-9C24-14E1B0F3322A}"/>
   </bookViews>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -106,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -148,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +398,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -577,7 +566,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -907,7 +896,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
@@ -1079,7 +1068,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>3</c:v>
@@ -1716,7 +1705,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1731,7 +1720,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1749,7 +1738,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -1767,7 +1756,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1785,28 +1774,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -4070,16 +4059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>135465</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>118534</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>364068</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4108,8 +4097,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="prediction_data"/>
     </sheetNames>
@@ -4128,7 +4120,7 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44901.954189814816</v>
+            <v>44901.95416666667</v>
           </cell>
           <cell r="B2">
             <v>30</v>
@@ -4142,7 +4134,7 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44901.954247685186</v>
+            <v>44901.95416666667</v>
           </cell>
           <cell r="B3">
             <v>32</v>
@@ -4156,16 +4148,86 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44901.954305555555</v>
+            <v>44902.857638888891</v>
           </cell>
           <cell r="B4">
-            <v>36</v>
+            <v>43</v>
           </cell>
           <cell r="C4">
             <v>0</v>
           </cell>
           <cell r="D4">
             <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>44902.857638888891</v>
+          </cell>
+          <cell r="B5">
+            <v>30</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>44902.85833333333</v>
+          </cell>
+          <cell r="B6">
+            <v>18</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>45417.599108796298</v>
+          </cell>
+          <cell r="B7">
+            <v>13</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>45417.599189814813</v>
+          </cell>
+          <cell r="B8">
+            <v>18</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>45417.599317129629</v>
+          </cell>
+          <cell r="B9">
+            <v>24</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -4530,7 +4592,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4560,7 +4622,7 @@
     <row r="2" spans="1:16">
       <c r="A2" s="2">
         <f>IF([1]prediction_data!A2=0,"",[1]prediction_data!A2)</f>
-        <v>44901.954189814816</v>
+        <v>44901.95416666667</v>
       </c>
       <c r="B2">
         <f>IF([1]prediction_data!B2=0,"",[1]prediction_data!B2)</f>
@@ -4579,7 +4641,7 @@
       </c>
       <c r="F2" s="1">
         <f>AVERAGE([1]prediction_data!$B:$B)</f>
-        <v>32.666666666666664</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -4591,7 +4653,7 @@
     <row r="3" spans="1:16">
       <c r="A3" s="2">
         <f>IF([1]prediction_data!A3=0,"",[1]prediction_data!A3)</f>
-        <v>44901.954247685186</v>
+        <v>44901.95416666667</v>
       </c>
       <c r="B3">
         <f>IF([1]prediction_data!B3=0,"",[1]prediction_data!B3)</f>
@@ -4602,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>[1]prediction_data!D3</f>
+        <f>IF([1]prediction_data!D3=0,"",[1]prediction_data!D3)</f>
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4620,17 +4682,17 @@
       </c>
       <c r="K3">
         <f>COUNTIF(Table1[predicted_gender],J3)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
         <f>IF([1]prediction_data!A4=0,"",[1]prediction_data!A4)</f>
-        <v>44901.954305555555</v>
+        <v>44902.857638888891</v>
       </c>
       <c r="B4">
         <f>IF([1]prediction_data!B4=0,"",[1]prediction_data!B4)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <f>[1]prediction_data!C4</f>
@@ -4645,7 +4707,7 @@
       </c>
       <c r="F4" s="1">
         <f>AVERAGE([1]prediction_data!$D:$D)</f>
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -4659,32 +4721,56 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="2">
         <f>IF([1]prediction_data!A5=0,"",[1]prediction_data!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" t="str">
+        <v>44902.857638888891</v>
+      </c>
+      <c r="B5">
         <f>IF([1]prediction_data!B5=0,"",[1]prediction_data!B5)</f>
-        <v/>
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <f>[1]prediction_data!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>IF([1]prediction_data!D5=0,"",[1]prediction_data!D5)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="2">
         <f>IF([1]prediction_data!A6=0,"",[1]prediction_data!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" t="str">
+        <v>44902.85833333333</v>
+      </c>
+      <c r="B6">
         <f>IF([1]prediction_data!B6=0,"",[1]prediction_data!B6)</f>
-        <v/>
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <f>[1]prediction_data!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>IF([1]prediction_data!D6=0,"",[1]prediction_data!D6)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="2">
         <f>IF([1]prediction_data!A7=0,"",[1]prediction_data!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" t="str">
+        <v>45417.599108796298</v>
+      </c>
+      <c r="B7">
         <f>IF([1]prediction_data!B7=0,"",[1]prediction_data!B7)</f>
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f>[1]prediction_data!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF([1]prediction_data!D7=0,"",[1]prediction_data!D7)</f>
         <v/>
       </c>
       <c r="O7" t="s">
@@ -4695,12 +4781,20 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="2">
         <f>IF([1]prediction_data!A8=0,"",[1]prediction_data!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" t="str">
+        <v>45417.599189814813</v>
+      </c>
+      <c r="B8">
         <f>IF([1]prediction_data!B8=0,"",[1]prediction_data!B8)</f>
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <f>[1]prediction_data!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF([1]prediction_data!D8=0,"",[1]prediction_data!D8)</f>
         <v/>
       </c>
       <c r="O8">
@@ -4712,12 +4806,20 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="2">
         <f>IF([1]prediction_data!A9=0,"",[1]prediction_data!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" t="str">
+        <v>45417.599317129629</v>
+      </c>
+      <c r="B9">
         <f>IF([1]prediction_data!B9=0,"",[1]prediction_data!B9)</f>
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f>[1]prediction_data!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF([1]prediction_data!D9=0,"",[1]prediction_data!D9)</f>
         <v/>
       </c>
       <c r="O9">
@@ -4729,282 +4831,314 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="2" t="str">
+      <c r="D10" t="str">
+        <f>IF([1]prediction_data!D10=0,"",[1]prediction_data!D10)</f>
+        <v/>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f>COUNTIF(Table1[predicted_age],O10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="D11" t="str">
+        <f>IF([1]prediction_data!D11=0,"",[1]prediction_data!D11)</f>
+        <v/>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <f>COUNTIF(Table1[predicted_age],O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="D12" t="str">
+        <f>IF([1]prediction_data!D12=0,"",[1]prediction_data!D12)</f>
+        <v/>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <f>COUNTIF(Table1[predicted_age],O12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2" t="str">
         <f>IF([1]prediction_data!A10=0,"",[1]prediction_data!A10)</f>
         <v/>
       </c>
-      <c r="B10" t="str">
+      <c r="B13" t="str">
         <f>IF([1]prediction_data!B10=0,"",[1]prediction_data!B10)</f>
         <v/>
       </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <f>COUNTIF(Table1[predicted_age],O10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2" t="str">
+      <c r="D13" t="str">
+        <f>IF([1]prediction_data!D13=0,"",[1]prediction_data!D13)</f>
+        <v/>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f>COUNTIF(Table1[predicted_age],O13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2" t="str">
         <f>IF([1]prediction_data!A11=0,"",[1]prediction_data!A11)</f>
         <v/>
       </c>
-      <c r="B11" t="str">
+      <c r="B14" t="str">
         <f>IF([1]prediction_data!B11=0,"",[1]prediction_data!B11)</f>
         <v/>
       </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <f>COUNTIF(Table1[predicted_age],O11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2" t="str">
+      <c r="D14" t="str">
+        <f>IF([1]prediction_data!D14=0,"",[1]prediction_data!D14)</f>
+        <v/>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <f>COUNTIF(Table1[predicted_age],O14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2" t="str">
         <f>IF([1]prediction_data!A12=0,"",[1]prediction_data!A12)</f>
         <v/>
       </c>
-      <c r="B12" t="str">
+      <c r="B15" t="str">
         <f>IF([1]prediction_data!B12=0,"",[1]prediction_data!B12)</f>
         <v/>
       </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <f>COUNTIF(Table1[predicted_age],O12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="str">
+      <c r="D15" t="str">
+        <f>IF([1]prediction_data!D12=0,"",[1]prediction_data!D12)</f>
+        <v/>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <f>COUNTIF(Table1[predicted_age],O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2" t="str">
         <f>IF([1]prediction_data!A13=0,"",[1]prediction_data!A13)</f>
         <v/>
       </c>
-      <c r="B13" t="str">
+      <c r="B16" t="str">
         <f>IF([1]prediction_data!B13=0,"",[1]prediction_data!B13)</f>
         <v/>
       </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <f>COUNTIF(Table1[predicted_age],O13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2" t="str">
+      <c r="D16" t="str">
+        <f>IF([1]prediction_data!D13=0,"",[1]prediction_data!D13)</f>
+        <v/>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <f>COUNTIF(Table1[predicted_age],O16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="str">
         <f>IF([1]prediction_data!A14=0,"",[1]prediction_data!A14)</f>
         <v/>
       </c>
-      <c r="B14" t="str">
+      <c r="B17" t="str">
         <f>IF([1]prediction_data!B14=0,"",[1]prediction_data!B14)</f>
         <v/>
       </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <f>COUNTIF(Table1[predicted_age],O14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2" t="str">
+      <c r="D17" t="str">
+        <f>IF([1]prediction_data!D14=0,"",[1]prediction_data!D14)</f>
+        <v/>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+      <c r="P17">
+        <f>COUNTIF(Table1[predicted_age],O17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="str">
         <f>IF([1]prediction_data!A15=0,"",[1]prediction_data!A15)</f>
         <v/>
       </c>
-      <c r="B15" t="str">
+      <c r="B18" t="str">
         <f>IF([1]prediction_data!B15=0,"",[1]prediction_data!B15)</f>
         <v/>
       </c>
-      <c r="O15">
+      <c r="D18" t="str">
+        <f>IF([1]prediction_data!D15=0,"",[1]prediction_data!D15)</f>
+        <v/>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
         <v>7</v>
       </c>
-      <c r="P15">
-        <f>COUNTIF(Table1[predicted_age],O15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2" t="str">
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <f>COUNTIF(Table1[predicted_age],O18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="str">
         <f>IF([1]prediction_data!A16=0,"",[1]prediction_data!A16)</f>
         <v/>
       </c>
-      <c r="B16" t="str">
+      <c r="B19" t="str">
         <f>IF([1]prediction_data!B16=0,"",[1]prediction_data!B16)</f>
         <v/>
       </c>
-      <c r="O16">
-        <v>8</v>
-      </c>
-      <c r="P16">
-        <f>COUNTIF(Table1[predicted_age],O16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="2" t="str">
+      <c r="D19" t="str">
+        <f>IF([1]prediction_data!D16=0,"",[1]prediction_data!D16)</f>
+        <v/>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>COUNTIF(Table1[predicted_ethnicity],I19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <f>COUNTIF(Table1[predicted_age],O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="str">
         <f>IF([1]prediction_data!A17=0,"",[1]prediction_data!A17)</f>
         <v/>
       </c>
-      <c r="B17" t="str">
+      <c r="B20" t="str">
         <f>IF([1]prediction_data!B17=0,"",[1]prediction_data!B17)</f>
         <v/>
       </c>
-      <c r="O17">
-        <v>9</v>
-      </c>
-      <c r="P17">
-        <f>COUNTIF(Table1[predicted_age],O17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="2" t="str">
+      <c r="D20" t="str">
+        <f>IF([1]prediction_data!D17=0,"",[1]prediction_data!D17)</f>
+        <v/>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>COUNTIF(Table1[predicted_ethnicity],I20)</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <f>COUNTIF(Table1[predicted_age],O20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="str">
         <f>IF([1]prediction_data!A18=0,"",[1]prediction_data!A18)</f>
         <v/>
       </c>
-      <c r="B18" t="str">
+      <c r="B21" t="str">
         <f>IF([1]prediction_data!B18=0,"",[1]prediction_data!B18)</f>
         <v/>
       </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18">
-        <f>COUNTIF(Table1[predicted_age],O18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2" t="str">
+      <c r="D21" t="str">
+        <f>IF([1]prediction_data!D18=0,"",[1]prediction_data!D18)</f>
+        <v/>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f>COUNTIF(Table1[predicted_ethnicity],I21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <f>COUNTIF(Table1[predicted_age],O21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="str">
         <f>IF([1]prediction_data!A19=0,"",[1]prediction_data!A19)</f>
         <v/>
       </c>
-      <c r="B19" t="str">
+      <c r="B22" t="str">
         <f>IF([1]prediction_data!B19=0,"",[1]prediction_data!B19)</f>
         <v/>
       </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>COUNTIF(Table1[predicted_ethnicity],I19)</f>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>11</v>
-      </c>
-      <c r="P19">
-        <f>COUNTIF(Table1[predicted_age],O19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2" t="str">
+      <c r="D22" t="str">
+        <f>IF([1]prediction_data!D19=0,"",[1]prediction_data!D19)</f>
+        <v/>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <f>COUNTIF(Table1[predicted_ethnicity],I22)</f>
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>14</v>
+      </c>
+      <c r="P22">
+        <f>COUNTIF(Table1[predicted_age],O22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="str">
         <f>IF([1]prediction_data!A20=0,"",[1]prediction_data!A20)</f>
         <v/>
       </c>
-      <c r="B20" t="str">
+      <c r="B23" t="str">
         <f>IF([1]prediction_data!B20=0,"",[1]prediction_data!B20)</f>
         <v/>
       </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f>COUNTIF(Table1[predicted_ethnicity],I20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>12</v>
-      </c>
-      <c r="P20">
-        <f>COUNTIF(Table1[predicted_age],O20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2" t="str">
-        <f>IF([1]prediction_data!A21=0,"",[1]prediction_data!A21)</f>
-        <v/>
-      </c>
-      <c r="B21" t="str">
-        <f>IF([1]prediction_data!B21=0,"",[1]prediction_data!B21)</f>
-        <v/>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <f>COUNTIF(Table1[predicted_ethnicity],I21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>13</v>
-      </c>
-      <c r="P21">
-        <f>COUNTIF(Table1[predicted_age],O21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="2" t="str">
-        <f>IF([1]prediction_data!A22=0,"",[1]prediction_data!A22)</f>
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <f>IF([1]prediction_data!B22=0,"",[1]prediction_data!B22)</f>
-        <v/>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <f>COUNTIF(Table1[predicted_ethnicity],I22)</f>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>14</v>
-      </c>
-      <c r="P22">
-        <f>COUNTIF(Table1[predicted_age],O22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="2" t="str">
-        <f>IF([1]prediction_data!A23=0,"",[1]prediction_data!A23)</f>
-        <v/>
-      </c>
-      <c r="B23" t="str">
-        <f>IF([1]prediction_data!B23=0,"",[1]prediction_data!B23)</f>
+      <c r="D23" t="str">
+        <f>IF([1]prediction_data!D20=0,"",[1]prediction_data!D20)</f>
         <v/>
       </c>
       <c r="H23" t="s">
@@ -5027,11 +5161,15 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2" t="str">
-        <f>IF([1]prediction_data!A24=0,"",[1]prediction_data!A24)</f>
+        <f>IF([1]prediction_data!A21=0,"",[1]prediction_data!A21)</f>
         <v/>
       </c>
       <c r="B24" t="str">
-        <f>IF([1]prediction_data!B24=0,"",[1]prediction_data!B24)</f>
+        <f>IF([1]prediction_data!B21=0,"",[1]prediction_data!B21)</f>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f>IF([1]prediction_data!D21=0,"",[1]prediction_data!D21)</f>
         <v/>
       </c>
       <c r="O24">
@@ -5057,7 +5195,7 @@
       </c>
       <c r="P26">
         <f>COUNTIF(Table1[predicted_age],O26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -5111,7 +5249,7 @@
       </c>
       <c r="P32">
         <f>COUNTIF(Table1[predicted_age],O32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="15:16">
@@ -5165,7 +5303,7 @@
       </c>
       <c r="P38">
         <f>COUNTIF(Table1[predicted_age],O38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="15:16">
@@ -5219,7 +5357,7 @@
       </c>
       <c r="P44">
         <f>COUNTIF(Table1[predicted_age],O44)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="15:16">
@@ -5282,7 +5420,7 @@
       </c>
       <c r="P51">
         <f>COUNTIF(Table1[predicted_age],O51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="15:16">
